--- a/libs/pic/Tables.xlsx
+++ b/libs/pic/Tables.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzeng/Library/CloudStorage/GoogleDrive-wz192@georgetown.edu/My Drive/GU/Teach/2026-01-Spring/GLOH-6604/gloh6604-s4/libs/pic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1613D809-3542-BD41-8D15-44F6A6256B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1116CF11-E2F7-3141-9488-7EAA5CC23478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2360" windowWidth="28040" windowHeight="17180" activeTab="2" xr2:uid="{59114CB6-B9E4-014B-B257-84B053491F00}"/>
+    <workbookView xWindow="10360" yWindow="2360" windowWidth="28040" windowHeight="17180" xr2:uid="{59114CB6-B9E4-014B-B257-84B053491F00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -235,9 +235,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;???_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -329,10 +329,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -377,10 +377,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D436604-342F-A045-B3FB-8414087FD82E}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,7 +939,7 @@
         <v>0.01</v>
       </c>
       <c r="B13" s="5">
-        <v>282857.14285714278</v>
+        <v>282857.14285714302</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7264D8-FAAF-BA46-BAA4-FC8E29EDFDFA}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1305,8 +1305,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1319,8 +1319,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
       <c r="B3" s="13" t="s">
         <v>41</v>
       </c>
@@ -1331,8 +1331,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
       <c r="B4" s="13" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="16" t="s">
         <v>45</v>
@@ -1367,8 +1367,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1381,7 +1381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="16" t="s">
         <v>54</v>
